--- a/exceltestdata/TC008.xlsx
+++ b/exceltestdata/TC008.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Eclipse\eclipse-workspace\MavenProject\exceltestdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8562DB18-5D7F-4754-89E5-2573B3393EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2B7C7B-FAD6-4B21-9703-CE3BDC80DD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>start time</t>
   </si>
@@ -55,13 +55,25 @@
   </si>
   <si>
     <t>Enter a Timeframe End number that is greater than the Timeframe Start number.: Timeframe End</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>hari.radhakrishnan@qeagle.com</t>
+  </si>
+  <si>
+    <t>Testleaf$321</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +100,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -106,17 +126,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -395,49 +418,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5703125" customWidth="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="47.5703125" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
